--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch3/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch3/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>AccumulatedDeviceOnly(us)</t>
+  </si>
+  <si>
+    <t>AccumulatedDataMoverOnly(us)</t>
   </si>
   <si>
     <t>Total(us)</t>
@@ -857,13 +860,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,42 +885,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>32432.056</v>
       </c>
       <c r="F2">
-        <v>641.944</v>
+        <v>395.595</v>
       </c>
       <c r="G2">
+        <v>246.349</v>
+      </c>
+      <c r="H2">
         <v>33074</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>546.441</v>
@@ -926,21 +935,24 @@
         <v>390.559</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>937</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>801.7349999999999</v>
@@ -949,21 +961,24 @@
         <v>1489.265</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2291</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>787.202</v>
@@ -972,21 +987,24 @@
         <v>1489.798</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>2277</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>789.4000000000001</v>
@@ -995,6 +1013,9 @@
         <v>1486.6</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2276</v>
       </c>
     </row>
@@ -1005,13 +1026,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1030,188 +1051,215 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>63742.229</v>
       </c>
       <c r="F2">
-        <v>48026.771</v>
+        <v>46932.18</v>
       </c>
       <c r="G2">
+        <v>1094.591</v>
+      </c>
+      <c r="H2">
         <v>111769</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3">
         <v>38703.56400000001</v>
       </c>
       <c r="F3">
-        <v>59293.43599999999</v>
+        <v>55233.344</v>
       </c>
       <c r="G3">
+        <v>4060.092</v>
+      </c>
+      <c r="H3">
         <v>97997</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>13364.492</v>
       </c>
       <c r="F4">
-        <v>35977.508</v>
+        <v>35472.55</v>
       </c>
       <c r="G4">
+        <v>504.958</v>
+      </c>
+      <c r="H4">
         <v>49342</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>32779.838</v>
       </c>
       <c r="F5">
-        <v>48063.162</v>
+        <v>46973.057</v>
       </c>
       <c r="G5">
+        <v>1090.105</v>
+      </c>
+      <c r="H5">
         <v>80843</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>70012.49099999999</v>
       </c>
       <c r="F6">
-        <v>113628.509</v>
+        <v>105618.718</v>
       </c>
       <c r="G6">
+        <v>8009.791</v>
+      </c>
+      <c r="H6">
         <v>183641</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>68605.723</v>
       </c>
       <c r="F7">
-        <v>113722.277</v>
+        <v>105714.953</v>
       </c>
       <c r="G7">
+        <v>8007.324</v>
+      </c>
+      <c r="H7">
         <v>182328</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>63291.702</v>
       </c>
       <c r="F8">
-        <v>96509.298</v>
+        <v>88512.92</v>
       </c>
       <c r="G8">
+        <v>7996.378</v>
+      </c>
+      <c r="H8">
         <v>159801</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E9">
         <v>14936.89700000001</v>
       </c>
       <c r="F9">
-        <v>76559.10299999999</v>
+        <v>75445.92999999999</v>
       </c>
       <c r="G9">
+        <v>1113.173</v>
+      </c>
+      <c r="H9">
         <v>91496</v>
       </c>
     </row>
@@ -1222,13 +1270,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,88 +1295,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2">
         <v>25426.168</v>
       </c>
       <c r="F2">
-        <v>36246.832</v>
+        <v>32191.33</v>
       </c>
       <c r="G2">
+        <v>4055.502</v>
+      </c>
+      <c r="H2">
         <v>61673</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>48176.16699999999</v>
       </c>
       <c r="F3">
-        <v>42486.83300000001</v>
+        <v>34489.63</v>
       </c>
       <c r="G3">
+        <v>7997.203</v>
+      </c>
+      <c r="H3">
         <v>90663</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>30013.25</v>
       </c>
       <c r="F4">
-        <v>6641.750000000001</v>
+        <v>3361.428</v>
       </c>
       <c r="G4">
+        <v>3280.322</v>
+      </c>
+      <c r="H4">
         <v>36655</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>1183.885</v>
@@ -1337,21 +1397,24 @@
         <v>206.115</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1390</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>1240.14</v>
@@ -1360,136 +1423,154 @@
         <v>228.86</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>1469</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <v>24727.053</v>
       </c>
       <c r="F7">
-        <v>36286.947</v>
+        <v>32207.965</v>
       </c>
       <c r="G7">
+        <v>4078.982</v>
+      </c>
+      <c r="H7">
         <v>61014</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E8">
         <v>24871.519</v>
       </c>
       <c r="F8">
-        <v>36259.481</v>
+        <v>32201.234</v>
       </c>
       <c r="G8">
+        <v>4058.247</v>
+      </c>
+      <c r="H8">
         <v>61131</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9">
         <v>24836.941</v>
       </c>
       <c r="F9">
-        <v>36251.059</v>
+        <v>32194.543</v>
       </c>
       <c r="G9">
+        <v>4056.516</v>
+      </c>
+      <c r="H9">
         <v>61088</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>45758.131</v>
       </c>
       <c r="F10">
-        <v>42500.869</v>
+        <v>34495.096</v>
       </c>
       <c r="G10">
+        <v>8005.773</v>
+      </c>
+      <c r="H10">
         <v>88259</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>23196.081</v>
       </c>
       <c r="F11">
-        <v>6687.919</v>
+        <v>3374.96</v>
       </c>
       <c r="G11">
+        <v>3312.959</v>
+      </c>
+      <c r="H11">
         <v>29884</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>1142.046</v>
@@ -1498,21 +1579,24 @@
         <v>203.954</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1346</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>1279.669</v>
@@ -1521,6 +1605,9 @@
         <v>212.331</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>1492</v>
       </c>
     </row>
@@ -1531,13 +1618,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,88 +1643,100 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>56145.01600000002</v>
+        <v>56145.016</v>
       </c>
       <c r="F2">
-        <v>72768.98399999998</v>
+        <v>64615.19100000001</v>
       </c>
       <c r="G2">
+        <v>8153.793</v>
+      </c>
+      <c r="H2">
         <v>128914</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E3">
-        <v>93555.2755</v>
+        <v>93555.27549999999</v>
       </c>
       <c r="F3">
-        <v>85315.7245</v>
+        <v>69340.05650000001</v>
       </c>
       <c r="G3">
+        <v>15975.668</v>
+      </c>
+      <c r="H3">
         <v>178871</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>33758.501</v>
       </c>
       <c r="F4">
-        <v>13526.499</v>
+        <v>6932.545</v>
       </c>
       <c r="G4">
+        <v>6593.954</v>
+      </c>
+      <c r="H4">
         <v>47285</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>3337.499</v>
@@ -1646,21 +1745,24 @@
         <v>676.5010000000001</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>4014</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6">
         <v>3466.758</v>
@@ -1669,136 +1771,154 @@
         <v>660.242</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>4127</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7">
-        <v>39981.75899999999</v>
+        <v>39981.75900000001</v>
       </c>
       <c r="F7">
-        <v>72825.24100000001</v>
+        <v>64637.86899999999</v>
       </c>
       <c r="G7">
+        <v>8187.372</v>
+      </c>
+      <c r="H7">
         <v>112807</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8">
         <v>41439.83</v>
       </c>
       <c r="F8">
-        <v>72822.17</v>
+        <v>64669.043</v>
       </c>
       <c r="G8">
+        <v>8153.127</v>
+      </c>
+      <c r="H8">
         <v>114262</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9">
-        <v>41563.27899999998</v>
+        <v>41563.27900000001</v>
       </c>
       <c r="F9">
-        <v>72819.72100000002</v>
+        <v>64657.70999999999</v>
       </c>
       <c r="G9">
+        <v>8162.011</v>
+      </c>
+      <c r="H9">
         <v>114383</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>91491.31799999998</v>
       </c>
       <c r="F10">
-        <v>85336.68200000002</v>
+        <v>69332.54100000001</v>
       </c>
       <c r="G10">
+        <v>16004.141</v>
+      </c>
+      <c r="H10">
         <v>176828</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>33974.482</v>
       </c>
       <c r="F11">
-        <v>13484.518</v>
+        <v>6964.38</v>
       </c>
       <c r="G11">
+        <v>6520.138000000001</v>
+      </c>
+      <c r="H11">
         <v>47459</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12">
         <v>3501.137</v>
@@ -1807,21 +1927,24 @@
         <v>698.8630000000001</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>4200</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>3337.192</v>
@@ -1830,6 +1953,9 @@
         <v>628.808</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>3966</v>
       </c>
     </row>
@@ -1840,13 +1966,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,19 +1991,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2">
         <v>520.022</v>
@@ -1886,21 +2015,24 @@
         <v>93.97799999999999</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>614</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>2221.54</v>
@@ -1909,21 +2041,24 @@
         <v>102.46</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>2324</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>7179.272</v>
@@ -1932,21 +2067,24 @@
         <v>102.728</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>7282</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>3133.195</v>
@@ -1955,21 +2093,24 @@
         <v>100.805</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>3234</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>532.777</v>
@@ -1978,21 +2119,24 @@
         <v>111.223</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <v>539.372</v>
@@ -2001,21 +2145,24 @@
         <v>101.628</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>641</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8">
         <v>579.9300000000001</v>
@@ -2024,21 +2171,24 @@
         <v>126.07</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>706</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>514.17</v>
@@ -2047,21 +2197,24 @@
         <v>106.83</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>621</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>536.468</v>
@@ -2070,21 +2223,24 @@
         <v>97.532</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>634</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>5978.011</v>
@@ -2093,21 +2249,24 @@
         <v>104.989</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>6083</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>2890.986</v>
@@ -2116,21 +2275,24 @@
         <v>113.014</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>3004</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E13">
         <v>512.42</v>
@@ -2139,6 +2301,9 @@
         <v>95.58</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>608</v>
       </c>
     </row>
@@ -2149,13 +2314,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,19 +2339,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2">
         <v>8196.628000000001</v>
@@ -2195,21 +2363,24 @@
         <v>2219.372</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>10416</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3">
         <v>15372.828</v>
@@ -2218,21 +2389,24 @@
         <v>4304.172</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>19677</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4">
         <v>6300.624</v>
@@ -2241,21 +2415,24 @@
         <v>1824.376</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>8125</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>514.051</v>
@@ -2264,21 +2441,24 @@
         <v>102.949</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>617</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6">
         <v>451.233</v>
@@ -2287,21 +2467,24 @@
         <v>104.767</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7">
         <v>7856.374</v>
@@ -2310,21 +2493,24 @@
         <v>2222.626</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>10079</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8">
         <v>7280.004</v>
@@ -2333,21 +2519,24 @@
         <v>2212.996</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>9493</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9">
         <v>6858.139999999999</v>
@@ -2356,21 +2545,24 @@
         <v>2241.86</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>9100</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <v>14808.261</v>
@@ -2379,21 +2571,24 @@
         <v>4340.739</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>19149</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>12528.189</v>
@@ -2402,21 +2597,24 @@
         <v>1798.811</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>14327</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E12">
         <v>407.032</v>
@@ -2425,21 +2623,24 @@
         <v>94.968</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>502</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E13">
         <v>421.085</v>
@@ -2448,6 +2649,9 @@
         <v>95.91500000000001</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>517</v>
       </c>
     </row>
@@ -2458,13 +2662,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2483,19 +2687,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>1366.387000000002</v>
@@ -2504,21 +2711,24 @@
         <v>38477.613</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>39844</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>711.8890000000001</v>
@@ -2527,21 +2737,24 @@
         <v>6103.111</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>6815</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>891.5080000000016</v>
@@ -2550,21 +2763,24 @@
         <v>32530.492</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>33422</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>881.3159999999989</v>
@@ -2573,21 +2789,24 @@
         <v>32520.684</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>33402</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>937.3070000000007</v>
@@ -2596,21 +2815,24 @@
         <v>32553.693</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>33491</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7">
         <v>1264.959999999999</v>
@@ -2619,21 +2841,24 @@
         <v>38463.04</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>39728</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>569.7169999999996</v>
@@ -2642,6 +2867,9 @@
         <v>6111.283</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>6681</v>
       </c>
     </row>
@@ -2660,10 +2888,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2672,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2680,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>35356.834</v>
+        <v>35603.183</v>
       </c>
       <c r="E2">
-        <v>5498.165999999999</v>
+        <v>5251.816999999999</v>
       </c>
       <c r="F2">
         <v>40855</v>
@@ -2700,16 +2928,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>62327.26300000001</v>
+        <v>62854.056</v>
       </c>
       <c r="E3">
-        <v>260967.737</v>
+        <v>260440.944</v>
       </c>
       <c r="F3">
         <v>323295</v>
@@ -2720,16 +2948,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>159</v>
       </c>
       <c r="D4">
-        <v>698946.3050000002</v>
+        <v>738119.7870000002</v>
       </c>
       <c r="E4">
-        <v>741960.6949999998</v>
+        <v>702787.2129999998</v>
       </c>
       <c r="F4">
         <v>1440907</v>
@@ -2740,16 +2968,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>24759.927</v>
+        <v>24919.409</v>
       </c>
       <c r="E5">
-        <v>1076.073</v>
+        <v>916.5909999999999</v>
       </c>
       <c r="F5">
         <v>25836</v>
@@ -2760,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2780,16 +3008,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7">
         <v>15</v>
       </c>
       <c r="D7">
-        <v>109722.177</v>
+        <v>109877.47</v>
       </c>
       <c r="E7">
-        <v>83765.823</v>
+        <v>83610.53000000001</v>
       </c>
       <c r="F7">
         <v>193488</v>
@@ -2800,16 +3028,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>113105.288</v>
+        <v>129590.774</v>
       </c>
       <c r="E8">
-        <v>411388.712</v>
+        <v>394903.226</v>
       </c>
       <c r="F8">
         <v>524494</v>
@@ -2820,16 +3048,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>59623.258</v>
+        <v>60845.731</v>
       </c>
       <c r="E9">
-        <v>59482.742</v>
+        <v>58260.269</v>
       </c>
       <c r="F9">
         <v>119106</v>
@@ -2840,7 +3068,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2860,16 +3088,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>365436.936</v>
+        <v>397313.348</v>
       </c>
       <c r="E11">
-        <v>591780.064</v>
+        <v>559903.652</v>
       </c>
       <c r="F11">
         <v>957217</v>
@@ -2880,16 +3108,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>251851.05</v>
+        <v>290696.5539999999</v>
       </c>
       <c r="E12">
-        <v>244212.95</v>
+        <v>205367.446</v>
       </c>
       <c r="F12">
         <v>496064</v>
@@ -2900,16 +3128,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>445552.0465</v>
+        <v>523302.2505</v>
       </c>
       <c r="E13">
-        <v>491563.9535000001</v>
+        <v>413813.7495</v>
       </c>
       <c r="F13">
         <v>937116</v>
@@ -2920,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -2940,7 +3168,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -2960,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -2982,13 +3210,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3007,42 +3235,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>22152.207</v>
       </c>
       <c r="F2">
-        <v>6758.793000000001</v>
+        <v>6607.145</v>
       </c>
       <c r="G2">
+        <v>151.648</v>
+      </c>
+      <c r="H2">
         <v>28911</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1936.275</v>
@@ -3051,21 +3285,24 @@
         <v>1466.725</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>3403</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>560.159</v>
@@ -3074,67 +3311,76 @@
         <v>717.841</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1278</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2236.335</v>
       </c>
       <c r="F5">
-        <v>466.665</v>
+        <v>359.059</v>
       </c>
       <c r="G5">
+        <v>107.606</v>
+      </c>
+      <c r="H5">
         <v>2703</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>4249.755</v>
       </c>
       <c r="F6">
-        <v>3801.245</v>
+        <v>3533.706</v>
       </c>
       <c r="G6">
+        <v>267.539</v>
+      </c>
+      <c r="H6">
         <v>8051</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>6115.611</v>
@@ -3143,21 +3389,24 @@
         <v>6602.389</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>12718</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>7706.945000000007</v>
@@ -3166,21 +3415,24 @@
         <v>79549.05499999999</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>87256</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>7369.649999999994</v>
@@ -3189,21 +3441,24 @@
         <v>79537.35000000001</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>86907</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>7294.820000000007</v>
@@ -3212,21 +3467,24 @@
         <v>79543.17999999999</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>86838</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1734.801</v>
@@ -3235,21 +3493,24 @@
         <v>1468.199</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>3203</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>473.782</v>
@@ -3258,21 +3519,24 @@
         <v>692.218</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>1166</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>496.923</v>
@@ -3281,6 +3545,9 @@
         <v>364.077</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>861</v>
       </c>
     </row>
@@ -3291,13 +3558,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3316,19 +3583,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>20022.412</v>
@@ -3337,21 +3607,24 @@
         <v>5120.588</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>25143</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>6502.481</v>
@@ -3360,21 +3633,24 @@
         <v>5444.519</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>11947</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>6439.743</v>
@@ -3383,21 +3659,24 @@
         <v>5438.257</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>11878</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>4803.734</v>
@@ -3406,21 +3685,24 @@
         <v>4722.266</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>9526</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>517.5550000000001</v>
@@ -3429,21 +3711,24 @@
         <v>105.445</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>623</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>665.783</v>
@@ -3452,21 +3737,24 @@
         <v>106.217</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>772</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>541.362</v>
@@ -3475,21 +3763,24 @@
         <v>112.638</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>654</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>620.614</v>
@@ -3498,21 +3789,24 @@
         <v>102.386</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>723</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>563.961</v>
@@ -3521,21 +3815,24 @@
         <v>110.039</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>674</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>532.025</v>
@@ -3544,44 +3841,50 @@
         <v>105.975</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>26265.655</v>
       </c>
       <c r="F12">
-        <v>19703.345</v>
+        <v>15658.198</v>
       </c>
       <c r="G12">
+        <v>4045.147</v>
+      </c>
+      <c r="H12">
         <v>45969</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>713.1659999999999</v>
@@ -3590,21 +3893,24 @@
         <v>114.834</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>828</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>7328.252</v>
@@ -3613,21 +3919,24 @@
         <v>15597.748</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>22926</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>7935.203</v>
@@ -3636,21 +3945,24 @@
         <v>15583.797</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>23519</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>7982.927</v>
@@ -3659,21 +3971,24 @@
         <v>15590.073</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>23573</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>609.383</v>
@@ -3682,21 +3997,24 @@
         <v>113.617</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>723</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>621.255</v>
@@ -3705,21 +4023,24 @@
         <v>110.745</v>
       </c>
       <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>732</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>592.101</v>
@@ -3728,21 +4049,24 @@
         <v>110.899</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>703</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>640.377</v>
@@ -3751,21 +4075,24 @@
         <v>105.623</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>746</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>503.245</v>
@@ -3774,21 +4101,24 @@
         <v>111.755</v>
       </c>
       <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>615</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>509.713</v>
@@ -3797,44 +4127,50 @@
         <v>109.287</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>619</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>54556.797</v>
       </c>
       <c r="F23">
-        <v>40077.203</v>
+        <v>32088.203</v>
       </c>
       <c r="G23">
+        <v>7989</v>
+      </c>
+      <c r="H23">
         <v>94634</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>743.889</v>
@@ -3843,21 +4179,24 @@
         <v>121.111</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>865</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>14994.213</v>
@@ -3866,21 +4205,24 @@
         <v>32124.787</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>47119</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>15297.895</v>
@@ -3889,21 +4231,24 @@
         <v>32098.105</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>47396</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27">
         <v>15199.635</v>
@@ -3912,21 +4257,24 @@
         <v>32127.365</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>47327</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>574.95</v>
@@ -3935,21 +4283,24 @@
         <v>108.05</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>683</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>659.083</v>
@@ -3958,21 +4309,24 @@
         <v>116.917</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>776</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>506.238</v>
@@ -3981,21 +4335,24 @@
         <v>110.762</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>617</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31">
         <v>642.991</v>
@@ -4004,21 +4361,24 @@
         <v>142.009</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>785</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>567.7090000000001</v>
@@ -4027,21 +4387,24 @@
         <v>105.291</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>673</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>477.312</v>
@@ -4050,44 +4413,50 @@
         <v>112.688</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>590</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>19548.648</v>
       </c>
       <c r="F34">
-        <v>8772.352000000001</v>
+        <v>5470.666</v>
       </c>
       <c r="G34">
+        <v>3301.686</v>
+      </c>
+      <c r="H34">
         <v>28321</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>667.925</v>
@@ -4096,21 +4465,24 @@
         <v>119.075</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>787</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>6260.923</v>
@@ -4119,21 +4491,24 @@
         <v>5477.077</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>11738</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37">
         <v>6248.174</v>
@@ -4142,21 +4517,24 @@
         <v>5442.826</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>11691</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>6368.943</v>
@@ -4165,21 +4543,24 @@
         <v>5483.057</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>11852</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39">
         <v>1656.141</v>
@@ -4188,21 +4569,24 @@
         <v>107.859</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>1764</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E40">
         <v>520.482</v>
@@ -4211,21 +4595,24 @@
         <v>103.518</v>
       </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>624</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41">
         <v>629.901</v>
@@ -4234,21 +4621,24 @@
         <v>102.099</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>530.326</v>
@@ -4257,21 +4647,24 @@
         <v>109.674</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>640</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>635.9880000000001</v>
@@ -4280,21 +4673,24 @@
         <v>113.012</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>749</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44">
         <v>487.227</v>
@@ -4303,21 +4699,24 @@
         <v>107.773</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>595</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E45">
         <v>466.517</v>
@@ -4326,21 +4725,24 @@
         <v>99.483</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E46">
         <v>504.644</v>
@@ -4349,21 +4751,24 @@
         <v>114.356</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>619</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47">
         <v>605.529</v>
@@ -4372,21 +4777,24 @@
         <v>110.471</v>
       </c>
       <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>716</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <v>507.382</v>
@@ -4395,21 +4803,24 @@
         <v>113.618</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>621</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49">
         <v>585.042</v>
@@ -4418,21 +4829,24 @@
         <v>107.958</v>
       </c>
       <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>693</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>533.252</v>
@@ -4441,21 +4855,24 @@
         <v>109.748</v>
       </c>
       <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
         <v>643</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <v>558.433</v>
@@ -4464,21 +4881,24 @@
         <v>118.567</v>
       </c>
       <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>677</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52">
         <v>597.592</v>
@@ -4487,21 +4907,24 @@
         <v>110.408</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>708</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53">
         <v>600.837</v>
@@ -4510,21 +4933,24 @@
         <v>109.163</v>
       </c>
       <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
         <v>710</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54">
         <v>545.236</v>
@@ -4533,21 +4959,24 @@
         <v>112.764</v>
       </c>
       <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
         <v>658</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55">
         <v>653.144</v>
@@ -4556,21 +4985,24 @@
         <v>110.856</v>
       </c>
       <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
         <v>764</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E56">
         <v>492.525</v>
@@ -4579,21 +5011,24 @@
         <v>122.475</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>615</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57">
         <v>566.6659999999999</v>
@@ -4602,21 +5037,24 @@
         <v>114.334</v>
       </c>
       <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
         <v>681</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58">
         <v>505.696</v>
@@ -4625,21 +5063,24 @@
         <v>117.304</v>
       </c>
       <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
         <v>623</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59">
         <v>723.285</v>
@@ -4648,21 +5089,24 @@
         <v>119.715</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
         <v>843</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60">
         <v>546.866</v>
@@ -4671,21 +5115,24 @@
         <v>113.134</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>660</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <v>557.558</v>
@@ -4694,21 +5141,24 @@
         <v>149.442</v>
       </c>
       <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>707</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E62">
         <v>558.5360000000001</v>
@@ -4717,44 +5167,50 @@
         <v>109.464</v>
       </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
         <v>668</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E63">
-        <v>4099.766</v>
+        <v>4099.766000000001</v>
       </c>
       <c r="F63">
-        <v>340.234</v>
+        <v>113.361</v>
       </c>
       <c r="G63">
+        <v>226.873</v>
+      </c>
+      <c r="H63">
         <v>4440</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
         <v>39</v>
       </c>
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>526.792</v>
@@ -4763,21 +5219,24 @@
         <v>127.208</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>654</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E65">
         <v>6490.162</v>
@@ -4786,21 +5245,24 @@
         <v>5116.838</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
         <v>11607</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66">
         <v>6417.182</v>
@@ -4809,21 +5271,24 @@
         <v>5442.818</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
         <v>11860</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>6520.521</v>
@@ -4832,21 +5297,24 @@
         <v>5493.479</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>12014</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E68">
         <v>4624.101</v>
@@ -4855,21 +5323,24 @@
         <v>4721.899</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>9346</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E69">
         <v>589.2329999999999</v>
@@ -4878,21 +5349,24 @@
         <v>125.767</v>
       </c>
       <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
         <v>715</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>602.287</v>
@@ -4901,21 +5375,24 @@
         <v>115.713</v>
       </c>
       <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>718</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71">
         <v>465.397</v>
@@ -4924,21 +5401,24 @@
         <v>122.603</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>588</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72">
         <v>680.644</v>
@@ -4947,21 +5427,24 @@
         <v>115.356</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>796</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>499.626</v>
@@ -4970,21 +5453,24 @@
         <v>128.374</v>
       </c>
       <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
         <v>628</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>477.748</v>
@@ -4993,44 +5479,50 @@
         <v>113.252</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>591</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" t="s">
-        <v>30</v>
-      </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>25333.116</v>
       </c>
       <c r="F75">
-        <v>19827.884</v>
+        <v>15737.78</v>
       </c>
       <c r="G75">
+        <v>4090.104</v>
+      </c>
+      <c r="H75">
         <v>45161</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E76">
         <v>739.208</v>
@@ -5039,21 +5531,24 @@
         <v>118.792</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>858</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>7806.534</v>
@@ -5062,21 +5557,24 @@
         <v>15593.466</v>
       </c>
       <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
         <v>23400</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" t="s">
         <v>31</v>
       </c>
-      <c r="C78" t="s">
-        <v>30</v>
-      </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E78">
         <v>7847.025</v>
@@ -5085,21 +5583,24 @@
         <v>15595.975</v>
       </c>
       <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
         <v>23443</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
         <v>31</v>
       </c>
-      <c r="C79" t="s">
-        <v>30</v>
-      </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E79">
         <v>7904.811</v>
@@ -5108,21 +5609,24 @@
         <v>15623.189</v>
       </c>
       <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
         <v>23528</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E80">
         <v>16719.37</v>
@@ -5131,21 +5635,24 @@
         <v>5155.63</v>
       </c>
       <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>21875</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E81">
         <v>6523.613</v>
@@ -5154,21 +5661,24 @@
         <v>5494.387</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>12018</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E82">
         <v>6405.702</v>
@@ -5177,21 +5687,24 @@
         <v>5447.298</v>
       </c>
       <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
         <v>11853</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E83">
         <v>10053.713</v>
@@ -5200,21 +5713,24 @@
         <v>16639.287</v>
       </c>
       <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>26693</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E84">
         <v>517.581</v>
@@ -5223,21 +5739,24 @@
         <v>118.419</v>
       </c>
       <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
         <v>636</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E85">
         <v>764.665</v>
@@ -5246,21 +5765,24 @@
         <v>124.335</v>
       </c>
       <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
         <v>889</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E86">
         <v>508.594</v>
@@ -5269,21 +5791,24 @@
         <v>120.406</v>
       </c>
       <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>629</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E87">
         <v>587.37</v>
@@ -5292,21 +5817,24 @@
         <v>118.63</v>
       </c>
       <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>706</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E88">
         <v>475.085</v>
@@ -5315,21 +5843,24 @@
         <v>116.915</v>
       </c>
       <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
         <v>592</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E89">
         <v>488.873</v>
@@ -5338,44 +5869,50 @@
         <v>122.127</v>
       </c>
       <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>611</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
         <v>31</v>
       </c>
-      <c r="C90" t="s">
-        <v>30</v>
-      </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>23477.175</v>
       </c>
       <c r="F90">
-        <v>19841.825</v>
+        <v>15728.52</v>
       </c>
       <c r="G90">
+        <v>4113.305</v>
+      </c>
+      <c r="H90">
         <v>43319</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E91">
         <v>786.7719999999999</v>
@@ -5384,21 +5921,24 @@
         <v>128.228</v>
       </c>
       <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
         <v>915</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" t="s">
         <v>31</v>
       </c>
-      <c r="C92" t="s">
-        <v>30</v>
-      </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E92">
         <v>5732.454</v>
@@ -5407,21 +5947,24 @@
         <v>15598.546</v>
       </c>
       <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
         <v>21331</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" t="s">
         <v>31</v>
       </c>
-      <c r="C93" t="s">
-        <v>30</v>
-      </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E93">
         <v>7858.638000000001</v>
@@ -5430,21 +5973,24 @@
         <v>15599.362</v>
       </c>
       <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
         <v>23458</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" t="s">
         <v>31</v>
       </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94">
         <v>7931.005999999999</v>
@@ -5453,21 +5999,24 @@
         <v>15598.994</v>
       </c>
       <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
         <v>23530</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E95">
         <v>7759.436</v>
@@ -5476,21 +6025,24 @@
         <v>5119.564</v>
       </c>
       <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
         <v>12879</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E96">
         <v>6455.859</v>
@@ -5499,21 +6051,24 @@
         <v>5444.141</v>
       </c>
       <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
         <v>11900</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97">
         <v>6404.36</v>
@@ -5522,21 +6077,24 @@
         <v>5536.64</v>
       </c>
       <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>11941</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E98">
         <v>9972.518</v>
@@ -5545,21 +6103,24 @@
         <v>16720.482</v>
       </c>
       <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
         <v>26693</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E99">
         <v>533.547</v>
@@ -5568,21 +6129,24 @@
         <v>127.453</v>
       </c>
       <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
         <v>661</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E100">
         <v>666.89</v>
@@ -5591,21 +6155,24 @@
         <v>113.11</v>
       </c>
       <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
         <v>780</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E101">
         <v>508.415</v>
@@ -5614,21 +6181,24 @@
         <v>112.585</v>
       </c>
       <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
         <v>621</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E102">
         <v>627.7329999999999</v>
@@ -5637,21 +6207,24 @@
         <v>104.267</v>
       </c>
       <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
         <v>732</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E103">
         <v>492.961</v>
@@ -5660,21 +6233,24 @@
         <v>119.039</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
         <v>612</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E104">
         <v>507.819</v>
@@ -5683,44 +6259,50 @@
         <v>111.181</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>619</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="C105" t="s">
-        <v>30</v>
-      </c>
       <c r="D105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>24323.264</v>
       </c>
       <c r="F105">
-        <v>19796.736</v>
+        <v>15699.208</v>
       </c>
       <c r="G105">
+        <v>4097.528</v>
+      </c>
+      <c r="H105">
         <v>44120</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E106">
         <v>656.4880000000001</v>
@@ -5729,21 +6311,24 @@
         <v>120.512</v>
       </c>
       <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
         <v>777</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
         <v>31</v>
       </c>
-      <c r="C107" t="s">
-        <v>30</v>
-      </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>6309.954</v>
@@ -5752,21 +6337,24 @@
         <v>15589.046</v>
       </c>
       <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
         <v>21899</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
         <v>31</v>
       </c>
-      <c r="C108" t="s">
-        <v>30</v>
-      </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E108">
         <v>7856.396000000001</v>
@@ -5775,21 +6363,24 @@
         <v>15599.604</v>
       </c>
       <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
         <v>23456</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
         <v>31</v>
       </c>
-      <c r="C109" t="s">
-        <v>30</v>
-      </c>
       <c r="D109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E109">
         <v>7744.989</v>
@@ -5798,21 +6389,24 @@
         <v>15599.011</v>
       </c>
       <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
         <v>23344</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E110">
         <v>7771.726</v>
@@ -5821,21 +6415,24 @@
         <v>5171.274</v>
       </c>
       <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
         <v>12943</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E111">
         <v>6162.31</v>
@@ -5844,21 +6441,24 @@
         <v>5508.69</v>
       </c>
       <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
         <v>11671</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E112">
         <v>6349.526</v>
@@ -5867,21 +6467,24 @@
         <v>5492.474</v>
       </c>
       <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>11842</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E113">
         <v>9872.914000000001</v>
@@ -5890,21 +6493,24 @@
         <v>16631.086</v>
       </c>
       <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
         <v>26504</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E114">
         <v>631.648</v>
@@ -5913,21 +6519,24 @@
         <v>118.352</v>
       </c>
       <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
         <v>750</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E115">
         <v>619.125</v>
@@ -5936,21 +6545,24 @@
         <v>115.875</v>
       </c>
       <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
         <v>735</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E116">
         <v>494.437</v>
@@ -5959,21 +6571,24 @@
         <v>115.563</v>
       </c>
       <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
         <v>610</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E117">
         <v>641.182</v>
@@ -5982,21 +6597,24 @@
         <v>114.818</v>
       </c>
       <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
         <v>756</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E118">
         <v>522.151</v>
@@ -6005,21 +6623,24 @@
         <v>111.849</v>
       </c>
       <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
         <v>634</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E119">
         <v>452.614</v>
@@ -6028,44 +6649,50 @@
         <v>112.386</v>
       </c>
       <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
         <v>565</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" t="s">
         <v>33</v>
       </c>
-      <c r="C120" t="s">
-        <v>32</v>
-      </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E120">
         <v>58210.851</v>
       </c>
       <c r="F120">
-        <v>40236.149</v>
+        <v>32189.836</v>
       </c>
       <c r="G120">
+        <v>8046.313</v>
+      </c>
+      <c r="H120">
         <v>98447</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E121">
         <v>668.578</v>
@@ -6074,21 +6701,24 @@
         <v>110.422</v>
       </c>
       <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
         <v>779</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" t="s">
         <v>33</v>
       </c>
-      <c r="C122" t="s">
-        <v>32</v>
-      </c>
       <c r="D122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E122">
         <v>14773.432</v>
@@ -6097,21 +6727,24 @@
         <v>32094.568</v>
       </c>
       <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
         <v>46868</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="C123" t="s">
-        <v>32</v>
-      </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E123">
         <v>15019.86</v>
@@ -6120,21 +6753,24 @@
         <v>32097.14</v>
       </c>
       <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
         <v>47117</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" t="s">
         <v>33</v>
       </c>
-      <c r="C124" t="s">
-        <v>32</v>
-      </c>
       <c r="D124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E124">
         <v>15133.852</v>
@@ -6143,21 +6779,24 @@
         <v>32136.148</v>
       </c>
       <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
         <v>47270</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E125">
         <v>536.457</v>
@@ -6166,21 +6805,24 @@
         <v>120.543</v>
       </c>
       <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
         <v>657</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E126">
         <v>604.849</v>
@@ -6189,21 +6831,24 @@
         <v>113.151</v>
       </c>
       <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
         <v>718</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E127">
         <v>487.189</v>
@@ -6212,21 +6857,24 @@
         <v>116.811</v>
       </c>
       <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
         <v>604</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E128">
         <v>728.953</v>
@@ -6235,21 +6883,24 @@
         <v>110.047</v>
       </c>
       <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
         <v>839</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E129">
         <v>482.876</v>
@@ -6258,21 +6909,24 @@
         <v>106.124</v>
       </c>
       <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
         <v>589</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E130">
         <v>529.088</v>
@@ -6281,44 +6935,50 @@
         <v>129.912</v>
       </c>
       <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
         <v>659</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" t="s">
         <v>35</v>
       </c>
-      <c r="C131" t="s">
-        <v>34</v>
-      </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E131">
         <v>20489.438</v>
       </c>
       <c r="F131">
-        <v>8717.562</v>
+        <v>5454.036</v>
       </c>
       <c r="G131">
+        <v>3263.526</v>
+      </c>
+      <c r="H131">
         <v>29207</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E132">
         <v>689.985</v>
@@ -6327,21 +6987,24 @@
         <v>118.015</v>
       </c>
       <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
         <v>808</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
         <v>35</v>
       </c>
-      <c r="C133" t="s">
-        <v>34</v>
-      </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E133">
         <v>5916.513</v>
@@ -6350,21 +7013,24 @@
         <v>5443.487</v>
       </c>
       <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
         <v>11360</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" t="s">
         <v>35</v>
       </c>
-      <c r="C134" t="s">
-        <v>34</v>
-      </c>
       <c r="D134" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E134">
         <v>6175.709</v>
@@ -6373,21 +7039,24 @@
         <v>5488.291</v>
       </c>
       <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
         <v>11664</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" t="s">
-        <v>34</v>
-      </c>
       <c r="D135" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E135">
         <v>6221.182</v>
@@ -6396,21 +7065,24 @@
         <v>5482.818</v>
       </c>
       <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
         <v>11704</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E136">
         <v>1636.512</v>
@@ -6419,21 +7091,24 @@
         <v>116.488</v>
       </c>
       <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
         <v>1753</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E137">
         <v>546.332</v>
@@ -6442,21 +7117,24 @@
         <v>126.668</v>
       </c>
       <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
         <v>673</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E138">
         <v>647.345</v>
@@ -6465,21 +7143,24 @@
         <v>112.655</v>
       </c>
       <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
         <v>760</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E139">
         <v>576.941</v>
@@ -6488,21 +7169,24 @@
         <v>110.059</v>
       </c>
       <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
         <v>687</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E140">
         <v>680.252</v>
@@ -6511,21 +7195,24 @@
         <v>107.748</v>
       </c>
       <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
         <v>788</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E141">
         <v>529.039</v>
@@ -6534,21 +7221,24 @@
         <v>110.961</v>
       </c>
       <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E142">
         <v>506.254</v>
@@ -6557,21 +7247,24 @@
         <v>111.746</v>
       </c>
       <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
         <v>618</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E143">
         <v>513.082</v>
@@ -6580,21 +7273,24 @@
         <v>118.918</v>
       </c>
       <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
         <v>632</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E144">
         <v>670.622</v>
@@ -6603,21 +7299,24 @@
         <v>116.378</v>
       </c>
       <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
         <v>787</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E145">
         <v>533.624</v>
@@ -6626,21 +7325,24 @@
         <v>119.376</v>
       </c>
       <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
         <v>653</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E146">
         <v>547.498</v>
@@ -6649,21 +7351,24 @@
         <v>108.502</v>
       </c>
       <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
         <v>656</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E147">
         <v>489.771</v>
@@ -6672,21 +7377,24 @@
         <v>120.229</v>
       </c>
       <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
         <v>610</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D148" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E148">
         <v>490.06</v>
@@ -6695,21 +7403,24 @@
         <v>105.94</v>
       </c>
       <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
         <v>596</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D149" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E149">
         <v>521.5119999999999</v>
@@ -6718,21 +7429,24 @@
         <v>112.488</v>
       </c>
       <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
         <v>634</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E150">
         <v>612.851</v>
@@ -6741,21 +7455,24 @@
         <v>110.149</v>
       </c>
       <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
         <v>723</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D151" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E151">
         <v>461.737</v>
@@ -6764,21 +7481,24 @@
         <v>106.263</v>
       </c>
       <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
         <v>568</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E152">
         <v>637.55</v>
@@ -6787,21 +7507,24 @@
         <v>105.45</v>
       </c>
       <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
         <v>743</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E153">
         <v>509.652</v>
@@ -6810,21 +7533,24 @@
         <v>106.348</v>
       </c>
       <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
         <v>616</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D154" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E154">
         <v>507.903</v>
@@ -6833,21 +7559,24 @@
         <v>101.097</v>
       </c>
       <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
         <v>609</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E155">
         <v>494.291</v>
@@ -6856,21 +7585,24 @@
         <v>156.709</v>
       </c>
       <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
         <v>651</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E156">
         <v>602.211</v>
@@ -6879,21 +7611,24 @@
         <v>102.789</v>
       </c>
       <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
         <v>705</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E157">
         <v>521.4</v>
@@ -6902,21 +7637,24 @@
         <v>109.6</v>
       </c>
       <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
         <v>631</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E158">
         <v>437.931</v>
@@ -6925,21 +7663,24 @@
         <v>108.069</v>
       </c>
       <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
         <v>546</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E159">
         <v>534.154</v>
@@ -6948,21 +7689,24 @@
         <v>108.846</v>
       </c>
       <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
         <v>643</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E160">
         <v>480.866</v>
@@ -6971,6 +7715,9 @@
         <v>107.134</v>
       </c>
       <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
         <v>588</v>
       </c>
     </row>
@@ -6981,13 +7728,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7006,42 +7753,48 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>17302.906</v>
       </c>
       <c r="F2">
-        <v>294.094</v>
+        <v>134.612</v>
       </c>
       <c r="G2">
+        <v>159.482</v>
+      </c>
+      <c r="H2">
         <v>17597</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>603.4259999999999</v>
@@ -7050,21 +7803,24 @@
         <v>132.574</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>736</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>2500.984</v>
@@ -7073,21 +7829,24 @@
         <v>221.016</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2722</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>2201.219</v>
@@ -7096,21 +7855,24 @@
         <v>217.781</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>2419</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>2151.392</v>
@@ -7119,6 +7881,9 @@
         <v>210.608</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2362</v>
       </c>
     </row>
@@ -7129,13 +7894,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7154,19 +7919,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>16117.414</v>
@@ -7175,21 +7943,24 @@
         <v>241.586</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>16359</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>563.635</v>
@@ -7198,21 +7969,24 @@
         <v>201.365</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>765</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4">
         <v>1842.955</v>
@@ -7221,21 +7995,24 @@
         <v>820.045</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>2663</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5">
         <v>1826.685</v>
@@ -7244,21 +8021,24 @@
         <v>817.3150000000001</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>2644</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6">
         <v>1810.361</v>
@@ -7267,6 +8047,9 @@
         <v>810.639</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2621</v>
       </c>
     </row>
@@ -7277,13 +8060,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7302,19 +8085,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>20827.725</v>
@@ -7323,21 +8109,24 @@
         <v>2784.275</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>23612</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>6497.573</v>
@@ -7346,44 +8135,50 @@
         <v>2832.427</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>9330</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>5556.038</v>
       </c>
       <c r="F4">
-        <v>7544.962</v>
+        <v>7389.669</v>
       </c>
       <c r="G4">
+        <v>155.293</v>
+      </c>
+      <c r="H4">
         <v>13101</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>5986.828</v>
@@ -7392,21 +8187,24 @@
         <v>2787.172</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>8774</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>6226.977</v>
@@ -7415,21 +8213,24 @@
         <v>2777.023</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>9004</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E7">
         <v>3393.876</v>
@@ -7438,21 +8239,24 @@
         <v>7337.124</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>10731</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>5653.068</v>
@@ -7461,21 +8265,24 @@
         <v>2789.932</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>8443</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>6248.566</v>
@@ -7484,21 +8291,24 @@
         <v>2854.434</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>9103</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>8843.957</v>
@@ -7507,21 +8317,24 @@
         <v>13604.043</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>22448</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11">
         <v>5577.217000000001</v>
@@ -7530,21 +8343,24 @@
         <v>2776.783</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>8354</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12">
         <v>5950.876</v>
@@ -7553,21 +8369,24 @@
         <v>2785.124</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>8736</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>8736.735000000001</v>
@@ -7576,21 +8395,24 @@
         <v>13637.265</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>22374</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>5661.905000000001</v>
@@ -7599,21 +8421,24 @@
         <v>2776.095</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>8438</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>5856.639</v>
@@ -7622,21 +8447,24 @@
         <v>2826.361</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>8683</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>8704.197</v>
@@ -7645,6 +8473,9 @@
         <v>13652.803</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>22357</v>
       </c>
     </row>
@@ -7655,13 +8486,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7680,119 +8511,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>36220.87999999999</v>
+        <v>36220.88</v>
       </c>
       <c r="F2">
-        <v>82219.12000000001</v>
+        <v>78906.27</v>
       </c>
       <c r="G2">
+        <v>3312.85</v>
+      </c>
+      <c r="H2">
         <v>118440</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>19486.54000000001</v>
+        <v>19486.54</v>
       </c>
       <c r="F3">
-        <v>82231.45999999999</v>
+        <v>78928.086</v>
       </c>
       <c r="G3">
+        <v>3303.374</v>
+      </c>
+      <c r="H3">
         <v>101718</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>19329.185</v>
       </c>
       <c r="F4">
-        <v>82258.815</v>
+        <v>78981.55</v>
       </c>
       <c r="G4">
+        <v>3277.265</v>
+      </c>
+      <c r="H4">
         <v>101588</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>19157.859</v>
       </c>
       <c r="F5">
-        <v>82358.141</v>
+        <v>79048.734</v>
       </c>
       <c r="G5">
+        <v>3309.407</v>
+      </c>
+      <c r="H5">
         <v>101516</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>18910.82400000001</v>
+        <v>18910.824</v>
       </c>
       <c r="F6">
-        <v>82321.17599999999</v>
+        <v>79038.586</v>
       </c>
       <c r="G6">
+        <v>3282.59</v>
+      </c>
+      <c r="H6">
         <v>101232</v>
       </c>
     </row>
@@ -7803,13 +8652,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7828,119 +8677,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2">
         <v>18849</v>
       </c>
       <c r="F2">
-        <v>4595</v>
+        <v>4222.145</v>
       </c>
       <c r="G2">
+        <v>372.855</v>
+      </c>
+      <c r="H2">
         <v>23444</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3">
         <v>4529.235</v>
       </c>
       <c r="F3">
-        <v>4434.765</v>
+        <v>4222.188</v>
       </c>
       <c r="G3">
+        <v>212.577</v>
+      </c>
+      <c r="H3">
         <v>8964</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>10497.881</v>
       </c>
       <c r="F4">
-        <v>16803.119</v>
+        <v>16590.969</v>
       </c>
       <c r="G4">
+        <v>212.15</v>
+      </c>
+      <c r="H4">
         <v>27301</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>16194.016</v>
       </c>
       <c r="F5">
-        <v>16812.984</v>
+        <v>16599.377</v>
       </c>
       <c r="G5">
+        <v>213.607</v>
+      </c>
+      <c r="H5">
         <v>33007</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>9553.126</v>
       </c>
       <c r="F6">
-        <v>16836.874</v>
+        <v>16625.59</v>
       </c>
       <c r="G6">
+        <v>211.284</v>
+      </c>
+      <c r="H6">
         <v>26390</v>
       </c>
     </row>
@@ -7951,13 +8818,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7976,19 +8843,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>16643.797</v>
@@ -7997,21 +8867,24 @@
         <v>3147.203</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>19791</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>3565.262</v>
@@ -8020,21 +8893,24 @@
         <v>3109.738</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>6675</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>16100.992</v>
@@ -8043,21 +8919,24 @@
         <v>21911.008</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>38012</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>20480.744</v>
@@ -8066,21 +8945,24 @@
         <v>21956.256</v>
       </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>42437</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>20315.152</v>
@@ -8089,21 +8971,24 @@
         <v>21913.848</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>42229</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>5321.858</v>
@@ -8112,21 +8997,24 @@
         <v>1208.142</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>6530</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>1893.895</v>
@@ -8135,21 +9023,24 @@
         <v>1512.105</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>3406</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>2405.007</v>
@@ -8158,6 +9049,9 @@
         <v>2109.993</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>4515</v>
       </c>
     </row>

--- a/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch3/anyimplementaion_layerbased_host_device.xlsx
+++ b/doc/FPGA_Runs/fpgarun05_finalrun01/runrslt/Batch3/anyimplementaion_layerbased_host_device.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="158">
   <si>
     <t>Shape1</t>
   </si>
@@ -2880,13 +2880,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
@@ -2900,10 +2900,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2914,16 +2917,19 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>35603.183</v>
+        <v>35356.834</v>
       </c>
       <c r="E2">
         <v>5251.816999999999</v>
       </c>
       <c r="F2">
+        <v>246.349</v>
+      </c>
+      <c r="G2">
         <v>40855</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2934,16 +2940,19 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>62854.056</v>
+        <v>62327.26300000001</v>
       </c>
       <c r="E3">
         <v>260440.944</v>
       </c>
       <c r="F3">
+        <v>526.793</v>
+      </c>
+      <c r="G3">
         <v>323295</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2954,16 +2963,19 @@
         <v>159</v>
       </c>
       <c r="D4">
-        <v>738119.7870000002</v>
+        <v>698946.3050000002</v>
       </c>
       <c r="E4">
         <v>702787.2129999998</v>
       </c>
       <c r="F4">
+        <v>39173.482</v>
+      </c>
+      <c r="G4">
         <v>1440907</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2974,16 +2986,19 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>24919.409</v>
+        <v>24759.927</v>
       </c>
       <c r="E5">
         <v>916.5909999999999</v>
       </c>
       <c r="F5">
+        <v>159.482</v>
+      </c>
+      <c r="G5">
         <v>25836</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3000,10 +3015,13 @@
         <v>2890.95</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>25052</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3014,16 +3032,19 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <v>109877.47</v>
+        <v>109722.177</v>
       </c>
       <c r="E7">
         <v>83610.53000000001</v>
       </c>
       <c r="F7">
+        <v>155.293</v>
+      </c>
+      <c r="G7">
         <v>193488</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3034,16 +3055,19 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>129590.774</v>
+        <v>113105.288</v>
       </c>
       <c r="E8">
         <v>394903.226</v>
       </c>
       <c r="F8">
+        <v>16485.486</v>
+      </c>
+      <c r="G8">
         <v>524494</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3054,16 +3078,19 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>60845.731</v>
+        <v>59623.258</v>
       </c>
       <c r="E9">
         <v>58260.269</v>
       </c>
       <c r="F9">
+        <v>1222.473</v>
+      </c>
+      <c r="G9">
         <v>119106</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3080,10 +3107,13 @@
         <v>76868.29300000001</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>163595</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3094,16 +3124,19 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>397313.348</v>
+        <v>365436.936</v>
       </c>
       <c r="E11">
         <v>559903.652</v>
       </c>
       <c r="F11">
+        <v>31876.412</v>
+      </c>
+      <c r="G11">
         <v>957217</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3114,16 +3147,19 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>290696.5539999999</v>
+        <v>251851.05</v>
       </c>
       <c r="E12">
         <v>205367.446</v>
       </c>
       <c r="F12">
+        <v>38845.504</v>
+      </c>
+      <c r="G12">
         <v>496064</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3134,16 +3170,19 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>523302.2505</v>
+        <v>445552.0464999999</v>
       </c>
       <c r="E13">
         <v>413813.7495</v>
       </c>
       <c r="F13">
+        <v>77750.20400000001</v>
+      </c>
+      <c r="G13">
         <v>937116</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3160,10 +3199,13 @@
         <v>1256.837</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>26395</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3180,10 +3222,13 @@
         <v>21563.55100000001</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>102558</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3200,6 +3245,9 @@
         <v>186759.916</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>193383</v>
       </c>
     </row>
